--- a/biology/Botanique/Centaurée_alpestre/Centaurée_alpestre.xlsx
+++ b/biology/Botanique/Centaurée_alpestre/Centaurée_alpestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_alpestre</t>
+          <t>Centaurée_alpestre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea scabiosa subsp. alpestris
 La Centaurée alpestre ou Centaurée des Alpes (Centaurea scabiosa subsp. alpestris) est une sous-espèce de Centaurea scabiosa, plante vivace de la famille des Astéracées. On la trouve notamment dans les Alpes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_alpestre</t>
+          <t>Centaurée_alpestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acrocentron alpestre (Hegetschw.) Á.Löve &amp; D.Löve[1]
-Centaurea alpestris Hegetschw.[1]
-Centaurea calcaria Jord.[1]
-Colymbada alpestris (Hegetschw.) Rauschert[1]
-Colymbada calcarea (Jord.) Holub[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acrocentron alpestre (Hegetschw.) Á.Löve &amp; D.Löve
+Centaurea alpestris Hegetschw.
+Centaurea calcaria Jord.
+Colymbada alpestris (Hegetschw.) Rauschert
+Colymbada calcarea (Jord.) Holub</t>
         </is>
       </c>
     </row>
